--- a/Documentatie/Offerte/Offerte Barroc.xlsx
+++ b/Documentatie/Offerte/Offerte Barroc.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Groep6\Documentatie\Offerte\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="12120" windowHeight="8640"/>
+    <workbookView xWindow="360" yWindow="312" windowWidth="12120" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -665,6 +670,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1167,22 +1175,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:6" ht="43.8" x14ac:dyDescent="1.05">
       <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
@@ -1192,23 +1200,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="12">
         <f ca="1">TODAY()</f>
-        <v>41526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1230,18 +1238,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,10 +1258,10 @@
       </c>
       <c r="F8" s="12">
         <f ca="1">TODAY() + 14</f>
-        <v>41540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1264,22 +1272,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1287,13 +1295,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -1323,13 +1331,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
         <v>40</v>
@@ -1381,7 +1389,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>31</v>
@@ -1397,7 +1405,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="21"/>
@@ -1405,7 +1413,7 @@
       <c r="E27" s="27"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="21"/>
@@ -1413,7 +1421,7 @@
       <c r="E28" s="27"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1421,7 +1429,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="21"/>
@@ -1429,7 +1437,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="21"/>
@@ -1437,7 +1445,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
@@ -1445,7 +1453,7 @@
       <c r="E32" s="32"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1457,7 +1465,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1468,7 +1476,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1479,7 +1487,7 @@
         <v>9072</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1490,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="9" t="s">
         <v>21</v>
       </c>
@@ -1499,12 +1507,12 @@
         <v>52272</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1515,12 +1523,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
